--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,46 +46,43 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>love</t>
   </si>
   <si>
     <t>excellent</t>
@@ -94,12 +91,12 @@
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
@@ -109,325 +106,316 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>wife</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>handy</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>baking</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fan</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>making</t>
   </si>
   <si>
-    <t>w</t>
+    <t>many</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>many</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>far</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>make</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>fast</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>food</t>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
-    <t>like</t>
+    <t>time</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>handle</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>use</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
-    <t>use</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>product</t>
-  </si>
-  <si>
-    <t>would</t>
   </si>
   <si>
     <t>positive</t>
@@ -788,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -857,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9310344827586207</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -875,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -899,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -928,16 +916,16 @@
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -949,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -957,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5038759689922481</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -975,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.8854489164086687</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>572</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>572</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -999,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1007,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4905660377358491</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1025,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1049,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1057,13 +1045,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4545454545454545</v>
+        <v>0.48</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1075,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8622291021671826</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>557</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>557</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1099,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1107,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.44</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1125,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>0.8260869565217391</v>
@@ -1157,37 +1145,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3506493506493507</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C9">
         <v>27</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.7619047619047619</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L9">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1199,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1207,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3382352941176471</v>
+        <v>0.2627118644067797</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1225,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.7333333333333333</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1249,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1257,13 +1245,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2627118644067797</v>
+        <v>0.2427184466019418</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1275,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.7272727272727273</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L11">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1299,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1307,13 +1295,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2444444444444444</v>
+        <v>0.227027027027027</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1325,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7254237288135593</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1349,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1357,163 +1345,115 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2216216216216216</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.7230769230769231</v>
+      </c>
+      <c r="L13">
+        <v>47</v>
+      </c>
+      <c r="M13">
+        <v>47</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0.7084745762711865</v>
+      </c>
+      <c r="L14">
+        <v>209</v>
+      </c>
+      <c r="M14">
+        <v>209</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L13">
-        <v>35</v>
-      </c>
-      <c r="M13">
-        <v>35</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
+      <c r="K15">
+        <v>0.703125</v>
+      </c>
+      <c r="L15">
+        <v>45</v>
+      </c>
+      <c r="M15">
+        <v>45</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.2156862745098039</v>
-      </c>
-      <c r="C14">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>23</v>
-      </c>
-      <c r="E14">
-        <v>0.04</v>
-      </c>
-      <c r="F14">
-        <v>0.96</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>80</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L14">
-        <v>27</v>
-      </c>
-      <c r="M14">
-        <v>27</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.134020618556701</v>
-      </c>
-      <c r="C15">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>0.04</v>
-      </c>
-      <c r="F15">
-        <v>0.96</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>168</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15">
-        <v>0.6886035313001605</v>
-      </c>
-      <c r="L15">
-        <v>858</v>
-      </c>
-      <c r="M15">
-        <v>858</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.676923076923077</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1525,21 +1465,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6590909090909091</v>
+        <v>0.6819277108433734</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>849</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>850</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1548,24 +1488,24 @@
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.647887323943662</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1577,21 +1517,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.6447368421052632</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1603,21 +1543,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.6438356164383562</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L20">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1629,21 +1569,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.6410256410256411</v>
+        <v>0.6447368421052632</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1655,21 +1595,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.640625</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1681,21 +1621,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L23">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1707,21 +1647,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6323529411764706</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1733,21 +1673,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6307692307692307</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1759,21 +1699,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L26">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1785,21 +1725,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.6142857142857143</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L27">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1811,21 +1751,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.6140350877192983</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1837,21 +1777,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.6031746031746031</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1863,21 +1803,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.6024096385542169</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M30">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1889,47 +1829,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31">
+        <v>0.5726495726495726</v>
+      </c>
+      <c r="L31">
+        <v>67</v>
+      </c>
+      <c r="M31">
+        <v>67</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>50</v>
-      </c>
-      <c r="K31">
-        <v>0.6</v>
-      </c>
-      <c r="L31">
-        <v>24</v>
-      </c>
-      <c r="M31">
-        <v>24</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>16</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.5901639344262295</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1946,16 +1886,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.5882352941176471</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1967,21 +1907,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.5694444444444444</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1993,21 +1933,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.5625</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2019,21 +1959,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.5609756097560976</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2045,21 +1985,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.5470085470085471</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L37">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2071,21 +2011,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.5449101796407185</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L38">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2097,21 +2037,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.5432098765432098</v>
+        <v>0.51</v>
       </c>
       <c r="L39">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M39">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2123,21 +2063,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.53</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="L40">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2149,21 +2089,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.4939759036144578</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="L41">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M41">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2175,21 +2115,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.4838709677419355</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2201,21 +2141,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.481203007518797</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L43">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2227,21 +2167,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.4489795918367347</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2253,21 +2193,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.4342105263157895</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L45">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2279,21 +2219,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.4313725490196079</v>
+        <v>0.45</v>
       </c>
       <c r="L46">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2305,47 +2245,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>232</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.4285714285714285</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.4181818181818182</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2357,21 +2297,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.4178082191780822</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L49">
-        <v>305</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>305</v>
+        <v>32</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2383,21 +2323,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>425</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.4166666666666667</v>
+        <v>0.4404761904761905</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2409,47 +2349,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.4144144144144144</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="L51">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="M51">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>65</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.4126984126984127</v>
+        <v>0.4178082191780822</v>
       </c>
       <c r="L52">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="M52">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2461,21 +2401,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>37</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>0.4007782101167315</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L53">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="M53">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2487,21 +2427,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>154</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K54">
-        <v>0.3981481481481481</v>
+        <v>0.4085603112840467</v>
       </c>
       <c r="L54">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="M54">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2513,21 +2453,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>65</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K55">
-        <v>0.3970588235294117</v>
+        <v>0.3841059602649007</v>
       </c>
       <c r="L55">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M55">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2539,21 +2479,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K56">
-        <v>0.3884892086330936</v>
+        <v>0.381294964028777</v>
       </c>
       <c r="L56">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M56">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2565,47 +2505,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K57">
-        <v>0.3732057416267943</v>
+        <v>0.3798076923076923</v>
       </c>
       <c r="L57">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M57">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K58">
-        <v>0.3708609271523179</v>
+        <v>0.3716814159292036</v>
       </c>
       <c r="L58">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="M58">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2617,21 +2557,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K59">
-        <v>0.359375</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L59">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2643,21 +2583,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K60">
-        <v>0.359375</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2669,21 +2609,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K61">
-        <v>0.3472222222222222</v>
+        <v>0.3207750269106566</v>
       </c>
       <c r="L61">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="M61">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2695,21 +2635,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>47</v>
+        <v>631</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K62">
-        <v>0.3458646616541353</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L62">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M62">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2721,21 +2661,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K63">
-        <v>0.3452380952380952</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L63">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M63">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2747,21 +2687,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K64">
-        <v>0.3372844827586207</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L64">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="M64">
-        <v>314</v>
+        <v>26</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2770,24 +2710,24 @@
         <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>615</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>0.3333333333333333</v>
+        <v>0.3059602649006622</v>
       </c>
       <c r="L65">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="M65">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2799,73 +2739,73 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>48</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K66">
-        <v>0.3267326732673267</v>
+        <v>0.3059125964010283</v>
       </c>
       <c r="L66">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="M66">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>68</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K67">
-        <v>0.3153153153153153</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L67">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N67">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K68">
-        <v>0.3153153153153153</v>
+        <v>0.29</v>
       </c>
       <c r="L68">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M68">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2877,99 +2817,99 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K69">
-        <v>0.308974358974359</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L69">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="M69">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="N69">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>539</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K70">
-        <v>0.2980132450331126</v>
+        <v>0.277027027027027</v>
       </c>
       <c r="L70">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="M70">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>530</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K71">
-        <v>0.2727272727272727</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="L71">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M71">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K72">
-        <v>0.2588235294117647</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="L72">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M72">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2981,177 +2921,177 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K73">
-        <v>0.2550335570469799</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="L73">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="M73">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>111</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>0.2547169811320755</v>
+        <v>0.2476489028213166</v>
       </c>
       <c r="L74">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M74">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N74">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K75">
-        <v>0.25</v>
+        <v>0.2437810945273632</v>
       </c>
       <c r="L75">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>69</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K76">
-        <v>0.2476190476190476</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L76">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M76">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K77">
-        <v>0.2461538461538462</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="L77">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="M77">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="N77">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>343</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K78">
-        <v>0.2404371584699453</v>
+        <v>0.225609756097561</v>
       </c>
       <c r="L78">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="M78">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="N78">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>278</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K79">
-        <v>0.2393162393162393</v>
+        <v>0.2243436754176611</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="M79">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3163,47 +3103,47 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>89</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K80">
-        <v>0.2384615384615385</v>
+        <v>0.2216216216216216</v>
       </c>
       <c r="L80">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="M80">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>99</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K81">
-        <v>0.2295081967213115</v>
+        <v>0.2177121771217712</v>
       </c>
       <c r="L81">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M81">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3215,47 +3155,47 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>94</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K82">
-        <v>0.2293577981651376</v>
+        <v>0.2161016949152542</v>
       </c>
       <c r="L82">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M82">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>84</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K83">
-        <v>0.2250922509225092</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L83">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="M83">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3267,385 +3207,385 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>210</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K84">
+        <v>0.2076923076923077</v>
+      </c>
+      <c r="L84">
+        <v>27</v>
+      </c>
+      <c r="M84">
+        <v>27</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
         <v>103</v>
-      </c>
-      <c r="K84">
-        <v>0.2134146341463415</v>
-      </c>
-      <c r="L84">
-        <v>35</v>
-      </c>
-      <c r="M84">
-        <v>35</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>129</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K85">
-        <v>0.21</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="L85">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M85">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N85">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>158</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K86">
-        <v>0.1974789915966386</v>
+        <v>0.2050113895216401</v>
       </c>
       <c r="L86">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="M86">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>191</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K87">
-        <v>0.1958997722095672</v>
+        <v>0.2004889975550122</v>
       </c>
       <c r="L87">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M87">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N87">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O87">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>353</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K88">
-        <v>0.1937984496124031</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="L88">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M88">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K89">
-        <v>0.192090395480226</v>
+        <v>0.1868512110726644</v>
       </c>
       <c r="L89">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="M89">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>143</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K90">
-        <v>0.1904761904761905</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="L90">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M90">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K91">
-        <v>0.1890243902439024</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="L91">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M91">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N91">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K92">
-        <v>0.1885441527446301</v>
+        <v>0.1741935483870968</v>
       </c>
       <c r="L92">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="M92">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>340</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K93">
-        <v>0.1855670103092784</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="L93">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M93">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>237</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K94">
-        <v>0.1804878048780488</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="L94">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="M94">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="N94">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="O94">
-        <v>0.01000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>336</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K95">
-        <v>0.1801242236024845</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L95">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M95">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N95">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K96">
-        <v>0.1791044776119403</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="L96">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="M96">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="N96">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O96">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>220</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K97">
-        <v>0.1755725190839695</v>
+        <v>0.1510989010989011</v>
       </c>
       <c r="L97">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M97">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
-        <v>108</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K98">
-        <v>0.1699346405228758</v>
+        <v>0.1503267973856209</v>
       </c>
       <c r="L98">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M98">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N98">
         <v>0.96</v>
@@ -3657,15 +3597,15 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K99">
-        <v>0.1645569620253164</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="L99">
         <v>26</v>
@@ -3683,203 +3623,203 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K100">
-        <v>0.1548387096774194</v>
+        <v>0.1403762662807525</v>
       </c>
       <c r="L100">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M100">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="N100">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O100">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>131</v>
+        <v>594</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K101">
-        <v>0.1538461538461539</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="L101">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M101">
         <v>23</v>
       </c>
       <c r="N101">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K102">
-        <v>0.1420765027322404</v>
+        <v>0.1255060728744939</v>
       </c>
       <c r="L102">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M102">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <v>314</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K103">
-        <v>0.1411290322580645</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="L103">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="M103">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
-        <v>213</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K104">
-        <v>0.1293103448275862</v>
+        <v>0.1172607879924953</v>
       </c>
       <c r="L104">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M104">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="N104">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O104">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>606</v>
+        <v>941</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K105">
-        <v>0.1292134831460674</v>
+        <v>0.1161616161616162</v>
       </c>
       <c r="L105">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="M105">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="N105">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O105">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>930</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K106">
-        <v>0.1286764705882353</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L106">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M106">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106">
-        <v>237</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K107">
-        <v>0.1129707112970711</v>
+        <v>0.1139705882352941</v>
       </c>
       <c r="L107">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M107">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3891,293 +3831,241 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>212</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K108">
-        <v>0.1119592875318066</v>
+        <v>0.1129707112970711</v>
       </c>
       <c r="L108">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M108">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N108">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>349</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K109">
+        <v>0.1028770706190061</v>
+      </c>
+      <c r="L109">
+        <v>118</v>
+      </c>
+      <c r="M109">
         <v>128</v>
       </c>
-      <c r="K109">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L109">
-        <v>23</v>
-      </c>
-      <c r="M109">
-        <v>24</v>
-      </c>
       <c r="N109">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O109">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>184</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K110">
-        <v>0.1085271317829457</v>
+        <v>0.1023166023166023</v>
       </c>
       <c r="L110">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M110">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N110">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O110">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K111">
-        <v>0.1037037037037037</v>
+        <v>0.1002444987775061</v>
       </c>
       <c r="L111">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M111">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="N111">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="O111">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>484</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K112">
-        <v>0.1004901960784314</v>
+        <v>0.09695290858725762</v>
       </c>
       <c r="L112">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M112">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N112">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="O112">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>367</v>
+        <v>326</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K113">
-        <v>0.09728308501314636</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="L113">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="M113">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="N113">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="O113">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>1030</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K114">
-        <v>0.08211143695014662</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="L114">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M114">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N114">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O114">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K115">
-        <v>0.07988980716253444</v>
+        <v>0.06162464985994398</v>
       </c>
       <c r="L115">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M115">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N115">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="O115">
-        <v>0.06000000000000005</v>
+        <v>0.39</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K116">
-        <v>0.06818181818181818</v>
+        <v>0.06157965194109773</v>
       </c>
       <c r="L116">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="M116">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="N116">
-        <v>0.5600000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="O116">
-        <v>0.4399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="117" spans="10:17">
-      <c r="J117" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K117">
-        <v>0.053475935828877</v>
-      </c>
-      <c r="L117">
-        <v>40</v>
-      </c>
-      <c r="M117">
-        <v>59</v>
-      </c>
-      <c r="N117">
-        <v>0.68</v>
-      </c>
-      <c r="O117">
-        <v>0.32</v>
-      </c>
-      <c r="P117" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q117">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="118" spans="10:17">
-      <c r="J118" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K118">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="L118">
-        <v>27</v>
-      </c>
-      <c r="M118">
-        <v>33</v>
-      </c>
-      <c r="N118">
-        <v>0.82</v>
-      </c>
-      <c r="O118">
-        <v>0.18</v>
-      </c>
-      <c r="P118" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q118">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
